--- a/medicine/Pharmacie/Icosapent_éthyl/Icosapent_éthyl.xlsx
+++ b/medicine/Pharmacie/Icosapent_éthyl/Icosapent_éthyl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Icosapent_%C3%A9thyl</t>
+          <t>Icosapent_éthyl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'icosapent éthyl (ou éthyle) est un éthyle d'un acide gras insaturé, l'acide eicosapentaénoïque. Il est en cours de développement comme médicament hypolipémiant.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Icosapent_%C3%A9thyl</t>
+          <t>Icosapent_éthyl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il permet la réduction du taux de triglycérides sanguin.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Icosapent_%C3%A9thyl</t>
+          <t>Icosapent_éthyl</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez les patients à haut risque de  maladie cardiovasculaire et ayant une hypertriglycéridémie, l'association de l'icosapent éthyl à une statine permet la réduction du risque de survenue d'une complication cardiovasculaire ainsi que de la mortalité cardiovasculaire[1]. Il permet de diminuer la nécessité d'une revascularisation coronaire (pontage ou angioplastie)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les patients à haut risque de  maladie cardiovasculaire et ayant une hypertriglycéridémie, l'association de l'icosapent éthyl à une statine permet la réduction du risque de survenue d'une complication cardiovasculaire ainsi que de la mortalité cardiovasculaire. Il permet de diminuer la nécessité d'une revascularisation coronaire (pontage ou angioplastie).
 </t>
         </is>
       </c>
